--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col4a6-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col4a6-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Col4a6</t>
   </si>
   <si>
     <t>Cd93</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.190133</v>
+        <v>0.052224</v>
       </c>
       <c r="H2">
-        <v>0.570399</v>
+        <v>0.156672</v>
       </c>
       <c r="I2">
-        <v>0.1262541883749437</v>
+        <v>0.04490044548800991</v>
       </c>
       <c r="J2">
-        <v>0.1586467056275178</v>
+        <v>0.05567964586107596</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N2">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O2">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P2">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q2">
-        <v>37.42745111582533</v>
+        <v>8.49802001408</v>
       </c>
       <c r="R2">
-        <v>336.847060042428</v>
+        <v>76.48218012672</v>
       </c>
       <c r="S2">
-        <v>0.07446579610922914</v>
+        <v>0.02348938946568742</v>
       </c>
       <c r="T2">
-        <v>0.09397967511695364</v>
+        <v>0.0292191025997802</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.190133</v>
+        <v>0.052224</v>
       </c>
       <c r="H3">
-        <v>0.570399</v>
+        <v>0.156672</v>
       </c>
       <c r="I3">
-        <v>0.1262541883749437</v>
+        <v>0.04490044548800991</v>
       </c>
       <c r="J3">
-        <v>0.1586467056275178</v>
+        <v>0.05567964586107596</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.869893</v>
       </c>
       <c r="O3">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P3">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q3">
-        <v>0.05513178858966666</v>
+        <v>0.015143097344</v>
       </c>
       <c r="R3">
-        <v>0.496186097307</v>
+        <v>0.136287876096</v>
       </c>
       <c r="S3">
-        <v>0.0001096904118731012</v>
+        <v>4.18570573663848E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001384349568513007</v>
+        <v>5.206715378872838E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.190133</v>
+        <v>0.052224</v>
       </c>
       <c r="H4">
-        <v>0.570399</v>
+        <v>0.156672</v>
       </c>
       <c r="I4">
-        <v>0.1262541883749437</v>
+        <v>0.04490044548800991</v>
       </c>
       <c r="J4">
-        <v>0.1586467056275178</v>
+        <v>0.05567964586107596</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N4">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O4">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P4">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q4">
-        <v>10.387313353124</v>
+        <v>3.215988074496</v>
       </c>
       <c r="R4">
-        <v>93.485820178116</v>
+        <v>28.943892670464</v>
       </c>
       <c r="S4">
-        <v>0.02066663732677614</v>
+        <v>0.008889317308464928</v>
       </c>
       <c r="T4">
-        <v>0.02608236214760096</v>
+        <v>0.01105766818066752</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.190133</v>
+        <v>0.052224</v>
       </c>
       <c r="H5">
-        <v>0.570399</v>
+        <v>0.156672</v>
       </c>
       <c r="I5">
-        <v>0.1262541883749437</v>
+        <v>0.04490044548800991</v>
       </c>
       <c r="J5">
-        <v>0.1586467056275178</v>
+        <v>0.05567964586107596</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N5">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O5">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P5">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q5">
-        <v>0.8274745970390001</v>
+        <v>0.151174092288</v>
       </c>
       <c r="R5">
-        <v>4.964847582234</v>
+        <v>0.9070445537280001</v>
       </c>
       <c r="S5">
-        <v>0.001646346539548848</v>
+        <v>0.0004178605280984428</v>
       </c>
       <c r="T5">
-        <v>0.001385182826665531</v>
+        <v>0.0003465255283523373</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.190133</v>
+        <v>0.052224</v>
       </c>
       <c r="H6">
-        <v>0.570399</v>
+        <v>0.156672</v>
       </c>
       <c r="I6">
-        <v>0.1262541883749437</v>
+        <v>0.04490044548800991</v>
       </c>
       <c r="J6">
-        <v>0.1586467056275178</v>
+        <v>0.05567964586107596</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N6">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O6">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P6">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q6">
-        <v>14.75958133646634</v>
+        <v>4.363812738048</v>
       </c>
       <c r="R6">
-        <v>132.836232028197</v>
+        <v>39.274314642432</v>
       </c>
       <c r="S6">
-        <v>0.02936571798751648</v>
+        <v>0.01206202112839273</v>
       </c>
       <c r="T6">
-        <v>0.03706105057944636</v>
+        <v>0.01500428239848717</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>1.143014</v>
       </c>
       <c r="I7">
-        <v>0.2529988742462696</v>
+        <v>0.3275750472262571</v>
       </c>
       <c r="J7">
-        <v>0.3179097536744132</v>
+        <v>0.40621562713345</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N7">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O7">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P7">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q7">
-        <v>75.00030787168978</v>
+        <v>61.99803314168221</v>
       </c>
       <c r="R7">
-        <v>675.002770845208</v>
+        <v>557.98229827514</v>
       </c>
       <c r="S7">
-        <v>0.1492208918213293</v>
+        <v>0.171368853469243</v>
       </c>
       <c r="T7">
-        <v>0.1883244612527891</v>
+        <v>0.2131704665733837</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>1.143014</v>
       </c>
       <c r="I8">
-        <v>0.2529988742462696</v>
+        <v>0.3275750472262571</v>
       </c>
       <c r="J8">
-        <v>0.3179097536744132</v>
+        <v>0.40621562713345</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.869893</v>
       </c>
       <c r="O8">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P8">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q8">
         <v>0.1104777641668889</v>
@@ -948,10 +948,10 @@
         <v>0.994299877502</v>
       </c>
       <c r="S8">
-        <v>0.0002198069709742144</v>
+        <v>0.0003053717484207833</v>
       </c>
       <c r="T8">
-        <v>0.0002774077334820583</v>
+        <v>0.0003798603816934078</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>1.143014</v>
       </c>
       <c r="I9">
-        <v>0.2529988742462696</v>
+        <v>0.3275750472262571</v>
       </c>
       <c r="J9">
-        <v>0.3179097536744132</v>
+        <v>0.40621562713345</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N9">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O9">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P9">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q9">
-        <v>20.81498141653067</v>
+        <v>23.46251655038533</v>
       </c>
       <c r="R9">
-        <v>187.334832748776</v>
+        <v>211.162648953468</v>
       </c>
       <c r="S9">
-        <v>0.04141356453540014</v>
+        <v>0.0648527760800764</v>
       </c>
       <c r="T9">
-        <v>0.05226605426688679</v>
+        <v>0.08067216565728086</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>1.143014</v>
       </c>
       <c r="I10">
-        <v>0.2529988742462696</v>
+        <v>0.3275750472262571</v>
       </c>
       <c r="J10">
-        <v>0.3179097536744132</v>
+        <v>0.40621562713345</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N10">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O10">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P10">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q10">
-        <v>1.658163932720667</v>
+        <v>1.102903543214333</v>
       </c>
       <c r="R10">
-        <v>9.948983596324</v>
+        <v>6.617421259286</v>
       </c>
       <c r="S10">
-        <v>0.003299089135071919</v>
+        <v>0.00304853728594716</v>
       </c>
       <c r="T10">
-        <v>0.002775747088333386</v>
+        <v>0.002528106683160478</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>1.143014</v>
       </c>
       <c r="I11">
-        <v>0.2529988742462696</v>
+        <v>0.3275750472262571</v>
       </c>
       <c r="J11">
-        <v>0.3179097536744132</v>
+        <v>0.40621562713345</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N11">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O11">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P11">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q11">
-        <v>29.57650364344912</v>
+        <v>31.83656973145933</v>
       </c>
       <c r="R11">
-        <v>266.188532791042</v>
+        <v>286.529127583134</v>
       </c>
       <c r="S11">
-        <v>0.05884552178349395</v>
+        <v>0.08799950864256978</v>
       </c>
       <c r="T11">
-        <v>0.07426608333292187</v>
+        <v>0.1094650278379316</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.01235833333333333</v>
+        <v>0.01751533333333333</v>
       </c>
       <c r="H12">
-        <v>0.037075</v>
+        <v>0.052546</v>
       </c>
       <c r="I12">
-        <v>0.008206315288072101</v>
+        <v>0.01505909676657583</v>
       </c>
       <c r="J12">
-        <v>0.01031177581156387</v>
+        <v>0.01867431750035806</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N12">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O12">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P12">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q12">
-        <v>2.432722971322222</v>
+        <v>2.850138886717778</v>
       </c>
       <c r="R12">
-        <v>21.8945067419</v>
+        <v>25.65124998046</v>
       </c>
       <c r="S12">
-        <v>0.004840154682511137</v>
+        <v>0.007878073037071151</v>
       </c>
       <c r="T12">
-        <v>0.006108524830795733</v>
+        <v>0.009799753403339783</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.01235833333333333</v>
+        <v>0.01751533333333333</v>
       </c>
       <c r="H13">
-        <v>0.037075</v>
+        <v>0.052546</v>
       </c>
       <c r="I13">
-        <v>0.008206315288072101</v>
+        <v>0.01505909676657583</v>
       </c>
       <c r="J13">
-        <v>0.01031177581156387</v>
+        <v>0.01867431750035806</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.869893</v>
       </c>
       <c r="O13">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P13">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q13">
-        <v>0.003583475886111111</v>
+        <v>0.005078821953111112</v>
       </c>
       <c r="R13">
-        <v>0.032251282975</v>
+        <v>0.045709397578</v>
       </c>
       <c r="S13">
-        <v>7.129696966851675E-06</v>
+        <v>1.403837913841692E-05</v>
       </c>
       <c r="T13">
-        <v>8.998045272277776E-06</v>
+        <v>1.746272890486189E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01235833333333333</v>
+        <v>0.01751533333333333</v>
       </c>
       <c r="H14">
-        <v>0.037075</v>
+        <v>0.052546</v>
       </c>
       <c r="I14">
-        <v>0.008206315288072101</v>
+        <v>0.01505909676657583</v>
       </c>
       <c r="J14">
-        <v>0.01031177581156387</v>
+        <v>0.01867431750035806</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N14">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O14">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P14">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q14">
-        <v>0.6751583410333334</v>
+        <v>1.078605681694667</v>
       </c>
       <c r="R14">
-        <v>6.0764250693</v>
+        <v>9.707451135252001</v>
       </c>
       <c r="S14">
-        <v>0.001343297549417557</v>
+        <v>0.002981375531624018</v>
       </c>
       <c r="T14">
-        <v>0.001695310785296442</v>
+        <v>0.003708615657050115</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01235833333333333</v>
+        <v>0.01751533333333333</v>
       </c>
       <c r="H15">
-        <v>0.037075</v>
+        <v>0.052546</v>
       </c>
       <c r="I15">
-        <v>0.008206315288072101</v>
+        <v>0.01505909676657583</v>
       </c>
       <c r="J15">
-        <v>0.01031177581156387</v>
+        <v>0.01867431750035806</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N15">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O15">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P15">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q15">
-        <v>0.05378449240833334</v>
+        <v>0.05070206452566667</v>
       </c>
       <c r="R15">
-        <v>0.32270695445</v>
+        <v>0.304212387154</v>
       </c>
       <c r="S15">
-        <v>0.0001070098263737727</v>
+        <v>0.0001401456502084659</v>
       </c>
       <c r="T15">
-        <v>9.003461313681219E-05</v>
+        <v>0.0001162207057598161</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01235833333333333</v>
+        <v>0.01751533333333333</v>
       </c>
       <c r="H16">
-        <v>0.037075</v>
+        <v>0.052546</v>
       </c>
       <c r="I16">
-        <v>0.008206315288072101</v>
+        <v>0.01505909676657583</v>
       </c>
       <c r="J16">
-        <v>0.01031177581156387</v>
+        <v>0.01867431750035806</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N16">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O16">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P16">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q16">
-        <v>0.959348592913889</v>
+        <v>1.463572968580667</v>
       </c>
       <c r="R16">
-        <v>8.634137336225001</v>
+        <v>13.172156717226</v>
       </c>
       <c r="S16">
-        <v>0.001908723532802781</v>
+        <v>0.004045464168533782</v>
       </c>
       <c r="T16">
-        <v>0.002408907537062606</v>
+        <v>0.005032265005303481</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.922458</v>
+        <v>0.6755085000000001</v>
       </c>
       <c r="H17">
-        <v>1.844916</v>
+        <v>1.351017</v>
       </c>
       <c r="I17">
-        <v>0.6125406220907146</v>
+        <v>0.5807795760749338</v>
       </c>
       <c r="J17">
-        <v>0.513131764886505</v>
+        <v>0.4801377917706627</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N17">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O17">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P17">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q17">
-        <v>181.584741740792</v>
+        <v>109.920434142945</v>
       </c>
       <c r="R17">
-        <v>1089.508450444752</v>
+        <v>659.5226048576701</v>
       </c>
       <c r="S17">
-        <v>0.3612816783374127</v>
+        <v>0.3038312316919867</v>
       </c>
       <c r="T17">
-        <v>0.3039707403029627</v>
+        <v>0.2519627268244948</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.922458</v>
+        <v>0.6755085000000001</v>
       </c>
       <c r="H18">
-        <v>1.844916</v>
+        <v>1.351017</v>
       </c>
       <c r="I18">
-        <v>0.6125406220907146</v>
+        <v>0.5807795760749338</v>
       </c>
       <c r="J18">
-        <v>0.513131764886505</v>
+        <v>0.4801377917706627</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.869893</v>
       </c>
       <c r="O18">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P18">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q18">
-        <v>0.267479918998</v>
+        <v>0.1958733718635</v>
       </c>
       <c r="R18">
-        <v>1.604879513988</v>
+        <v>1.175240231181</v>
       </c>
       <c r="S18">
-        <v>0.000532179042857564</v>
+        <v>0.0005414138717061227</v>
       </c>
       <c r="T18">
-        <v>0.0004477582654497539</v>
+        <v>0.0004489864807380161</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.922458</v>
+        <v>0.6755085000000001</v>
       </c>
       <c r="H19">
-        <v>1.844916</v>
+        <v>1.351017</v>
       </c>
       <c r="I19">
-        <v>0.6125406220907146</v>
+        <v>0.5807795760749338</v>
       </c>
       <c r="J19">
-        <v>0.513131764886505</v>
+        <v>0.4801377917706627</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N19">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O19">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P19">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q19">
-        <v>50.39556679322401</v>
+        <v>41.598255212559</v>
       </c>
       <c r="R19">
-        <v>302.373400759344</v>
+        <v>249.589531275354</v>
       </c>
       <c r="S19">
-        <v>0.100267207350556</v>
+        <v>0.1149817976613278</v>
       </c>
       <c r="T19">
-        <v>0.08436159117372814</v>
+        <v>0.09535269666845957</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.922458</v>
+        <v>0.6755085000000001</v>
       </c>
       <c r="H20">
-        <v>1.844916</v>
+        <v>1.351017</v>
       </c>
       <c r="I20">
-        <v>0.6125406220907146</v>
+        <v>0.5807795760749338</v>
       </c>
       <c r="J20">
-        <v>0.513131764886505</v>
+        <v>0.4801377917706627</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N20">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O20">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P20">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q20">
-        <v>4.014613780014001</v>
+        <v>1.95541100490825</v>
       </c>
       <c r="R20">
-        <v>16.058455120056</v>
+        <v>7.821644019633001</v>
       </c>
       <c r="S20">
-        <v>0.007987490525995757</v>
+        <v>0.00540495439922233</v>
       </c>
       <c r="T20">
-        <v>0.004480277770193258</v>
+        <v>0.002988165592690396</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,13 +1703,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.922458</v>
+        <v>0.6755085000000001</v>
       </c>
       <c r="H21">
-        <v>1.844916</v>
+        <v>1.351017</v>
       </c>
       <c r="I21">
-        <v>0.6125406220907146</v>
+        <v>0.5807795760749338</v>
       </c>
       <c r="J21">
-        <v>0.513131764886505</v>
+        <v>0.4801377917706627</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N21">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O21">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P21">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q21">
-        <v>71.60826306045801</v>
+        <v>56.4451707444795</v>
       </c>
       <c r="R21">
-        <v>429.6495783627481</v>
+        <v>338.671024466877</v>
       </c>
       <c r="S21">
-        <v>0.1424720668338925</v>
+        <v>0.1560201784506909</v>
       </c>
       <c r="T21">
-        <v>0.1198713973741711</v>
+        <v>0.12938521620428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.036854</v>
+      </c>
+      <c r="H22">
+        <v>0.110562</v>
+      </c>
+      <c r="I22">
+        <v>0.03168583444422329</v>
+      </c>
+      <c r="J22">
+        <v>0.03929261773445338</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>162.7225033333333</v>
+      </c>
+      <c r="N22">
+        <v>488.16751</v>
+      </c>
+      <c r="O22">
+        <v>0.5231437953541009</v>
+      </c>
+      <c r="P22">
+        <v>0.5247717033381212</v>
+      </c>
+      <c r="Q22">
+        <v>5.996975137846666</v>
+      </c>
+      <c r="R22">
+        <v>53.97277624061999</v>
+      </c>
+      <c r="S22">
+        <v>0.01657624769011267</v>
+      </c>
+      <c r="T22">
+        <v>0.02061965393712277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.036854</v>
+      </c>
+      <c r="H23">
+        <v>0.110562</v>
+      </c>
+      <c r="I23">
+        <v>0.03168583444422329</v>
+      </c>
+      <c r="J23">
+        <v>0.03929261773445338</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.2899643333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.869893</v>
+      </c>
+      <c r="O23">
+        <v>0.0009322191998643353</v>
+      </c>
+      <c r="P23">
+        <v>0.0009351200601857102</v>
+      </c>
+      <c r="Q23">
+        <v>0.01068634554066667</v>
+      </c>
+      <c r="R23">
+        <v>0.09617710986599999</v>
+      </c>
+      <c r="S23">
+        <v>2.953814323262764E-05</v>
+      </c>
+      <c r="T23">
+        <v>3.674331506069615E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.036854</v>
+      </c>
+      <c r="H24">
+        <v>0.110562</v>
+      </c>
+      <c r="I24">
+        <v>0.03168583444422329</v>
+      </c>
+      <c r="J24">
+        <v>0.03929261773445338</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>61.580654</v>
+      </c>
+      <c r="N24">
+        <v>184.741962</v>
+      </c>
+      <c r="O24">
+        <v>0.1979783766474813</v>
+      </c>
+      <c r="P24">
+        <v>0.1985944416431287</v>
+      </c>
+      <c r="Q24">
+        <v>2.269493422516</v>
+      </c>
+      <c r="R24">
+        <v>20.425440802644</v>
+      </c>
+      <c r="S24">
+        <v>0.006273110065988175</v>
+      </c>
+      <c r="T24">
+        <v>0.007803295479670666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.036854</v>
+      </c>
+      <c r="H25">
+        <v>0.110562</v>
+      </c>
+      <c r="I25">
+        <v>0.03168583444422329</v>
+      </c>
+      <c r="J25">
+        <v>0.03929261773445338</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.8947245</v>
+      </c>
+      <c r="N25">
+        <v>5.789449</v>
+      </c>
+      <c r="O25">
+        <v>0.009306378223129816</v>
+      </c>
+      <c r="P25">
+        <v>0.00622355841157717</v>
+      </c>
+      <c r="Q25">
+        <v>0.106682176723</v>
+      </c>
+      <c r="R25">
+        <v>0.640093060338</v>
+      </c>
+      <c r="S25">
+        <v>0.0002948803596534163</v>
+      </c>
+      <c r="T25">
+        <v>0.0002445399016141436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.036854</v>
+      </c>
+      <c r="H26">
+        <v>0.110562</v>
+      </c>
+      <c r="I26">
+        <v>0.03168583444422329</v>
+      </c>
+      <c r="J26">
+        <v>0.03929261773445338</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>83.559527</v>
+      </c>
+      <c r="N26">
+        <v>250.678581</v>
+      </c>
+      <c r="O26">
+        <v>0.2686392305754237</v>
+      </c>
+      <c r="P26">
+        <v>0.2694751765469873</v>
+      </c>
+      <c r="Q26">
+        <v>3.079502808058</v>
+      </c>
+      <c r="R26">
+        <v>27.715525272522</v>
+      </c>
+      <c r="S26">
+        <v>0.008512058185236402</v>
+      </c>
+      <c r="T26">
+        <v>0.01058838510098511</v>
       </c>
     </row>
   </sheetData>
